--- a/outputs-HGR-r202/test-o__Fusobacteriales_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-o__Fusobacteriales_split_pruned.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Row</t>
   </si>
   <si>
     <t>even_MAG-GUT88654.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT88709.fa</t>
   </si>
   <si>
     <t>1-f__Fusobacteriaceae</t>
@@ -76,10 +79,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="true"/>
+    <col min="1" max="1" width="22.42578125" customWidth="true"/>
     <col min="2" max="2" width="21" customWidth="true"/>
     <col min="3" max="3" width="20.28515625" customWidth="true"/>
     <col min="4" max="4" width="10.28515625" customWidth="true"/>
@@ -90,13 +93,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -113,6 +116,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.99999021388997578</v>
+      </c>
+      <c r="C3">
+        <v>9.7861100242468467e-06</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>